--- a/www.eia.gov/petroleum/production/xls/table2.xlsx
+++ b/www.eia.gov/petroleum/production/xls/table2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O181" sqref="O181"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,281 +1057,281 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B6" s="8">
-        <v>9358</v>
+        <v>9304</v>
       </c>
       <c r="C6" s="9">
-        <v>-7.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D6" s="16">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>8861</v>
+        <v>8782</v>
       </c>
       <c r="F6" s="9">
-        <v>-0.01</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G6" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="H6" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="9">
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="J6" s="9">
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B7" s="8">
-        <v>9304</v>
+        <v>9225</v>
       </c>
       <c r="C7" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>8782</v>
+        <v>8703</v>
       </c>
       <c r="F7" s="9">
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G7" s="9">
-        <v>-1E-3</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="H7" s="15">
         <v>25</v>
       </c>
       <c r="I7" s="9">
-        <v>-0.03</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="J7" s="9">
-        <v>-0.107</v>
+        <v>-0.14699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B8" s="8">
-        <v>9225</v>
+        <v>9194</v>
       </c>
       <c r="C8" s="9">
-        <v>-8.9999999999999993E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D8" s="16">
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E8" s="8">
-        <v>8703</v>
+        <v>8678</v>
       </c>
       <c r="F8" s="9">
-        <v>-8.9999999999999993E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G8" s="9">
-        <v>-3.1E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="H8" s="15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="9">
-        <v>-2.9000000000000001E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="J8" s="9">
-        <v>-0.14699999999999999</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B9" s="8">
-        <v>9194</v>
+        <v>9147</v>
       </c>
       <c r="C9" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D9" s="16">
-        <v>-0.02</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="E9" s="8">
-        <v>8678</v>
+        <v>8639</v>
       </c>
       <c r="F9" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G9" s="9">
-        <v>-2.3E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="H9" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9">
-        <v>-1.2999999999999999E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="J9" s="9">
-        <v>-0.12</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B10" s="8">
-        <v>9147</v>
+        <v>9174</v>
       </c>
       <c r="C10" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10" s="16">
-        <v>-3.9E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>8639</v>
+        <v>8663</v>
       </c>
       <c r="F10" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="9">
-        <v>-4.2999999999999997E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="H10" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9">
-        <v>-4.3999999999999997E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="J10" s="9">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B11" s="8">
-        <v>9174</v>
+        <v>8947</v>
       </c>
       <c r="C11" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D11" s="16">
-        <v>-4.1000000000000002E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E11" s="8">
-        <v>8663</v>
+        <v>8458</v>
       </c>
       <c r="F11" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="G11" s="9">
-        <v>-4.3999999999999997E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H11" s="15">
         <v>22</v>
       </c>
       <c r="I11" s="9">
-        <v>-3.5999999999999997E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="J11" s="9">
-        <v>-0.21</v>
+        <v>-0.17799999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B12" s="8">
-        <v>8947</v>
+        <v>8882</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D12" s="16">
-        <v>-7.0999999999999994E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>8458</v>
+        <v>8377</v>
       </c>
       <c r="F12" s="9">
-        <v>-2.4E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G12" s="9">
-        <v>-7.1999999999999995E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="H12" s="15">
         <v>22</v>
       </c>
       <c r="I12" s="9">
-        <v>-2.7E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J12" s="9">
-        <v>-0.17799999999999999</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B13" s="8">
-        <v>8882</v>
+        <v>8711</v>
       </c>
       <c r="C13" s="9">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D13" s="16">
-        <v>-6.2E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>8377</v>
+        <v>8241</v>
       </c>
       <c r="F13" s="9">
-        <v>-0.01</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="G13" s="9">
-        <v>-6.9000000000000006E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="H13" s="15">
         <v>22</v>
       </c>
       <c r="I13" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="J13" s="9">
-        <v>-0.19</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B14" s="8">
-        <v>8711</v>
+        <v>8691</v>
       </c>
       <c r="C14" s="9">
-        <v>-1.9E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="D14" s="16">
-        <v>-6.5000000000000002E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>8241</v>
+        <v>8253</v>
       </c>
       <c r="F14" s="9">
-        <v>-1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G14" s="9">
-        <v>-7.0999999999999994E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="H14" s="15">
         <v>22</v>
@@ -1340,135 +1340,135 @@
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="J14" s="9">
-        <v>-0.184</v>
+        <v>-0.17499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B15" s="8">
-        <v>8691</v>
+        <v>8759</v>
       </c>
       <c r="C15" s="9">
-        <v>-2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D15" s="16">
-        <v>-7.6999999999999999E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E15" s="8">
-        <v>8253</v>
+        <v>8300</v>
       </c>
       <c r="F15" s="9">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G15" s="9">
-        <v>-0.08</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="H15" s="15">
         <v>22</v>
       </c>
       <c r="I15" s="9">
-        <v>-1.0999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J15" s="9">
-        <v>-0.17499999999999999</v>
+        <v>-0.13200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8759</v>
-      </c>
-      <c r="C16" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D16" s="16">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>8300</v>
-      </c>
-      <c r="F16" s="9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="9">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>22</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>-0.13200000000000001</v>
+        <v>42614</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8567</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8115</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>23</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>-0.128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B17" s="10">
-        <v>8575</v>
+        <v>8799</v>
       </c>
       <c r="C17" s="11">
-        <v>-2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D17" s="18">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="E17" s="10">
-        <v>8123</v>
+        <v>8304</v>
       </c>
       <c r="F17" s="19">
-        <v>-2.1000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>-9.1999999999999998E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="H17" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="19">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J17" s="19">
-        <v>-0.126</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
-        <v>42644</v>
-      </c>
-      <c r="B18" s="10">
-        <v>8807</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D18" s="18">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="E18" s="10">
-        <v>8312</v>
-      </c>
-      <c r="F18" s="19">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G18" s="19">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="H18" s="17">
-        <v>24</v>
-      </c>
-      <c r="I18" s="19">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J18" s="19">
-        <v>-9.0999999999999998E-2</v>
+        <v>42675</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8904</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8391</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>-8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1523,272 +1523,272 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B22" s="8">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="C22" s="9">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="D22" s="16">
-        <v>-6.0000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>-0.18099999999999999</v>
+        <v>-0.98699999999999999</v>
       </c>
       <c r="G22" s="9">
-        <v>-0.51400000000000001</v>
+        <v>-0.99299999999999999</v>
       </c>
       <c r="H22" s="15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="J22" s="9">
-        <v>-0.13</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B23" s="8">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" s="9">
-        <v>5.1999999999999998E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="D23" s="16">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
       </c>
       <c r="F23" s="9">
-        <v>-0.98699999999999999</v>
+        <v>29.896999999999998</v>
       </c>
       <c r="G23" s="9">
-        <v>-0.99299999999999999</v>
+        <v>-0.76800000000000002</v>
       </c>
       <c r="H23" s="15">
         <v>16</v>
       </c>
       <c r="I23" s="9">
-        <v>-1.2E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="J23" s="9">
-        <v>-0.122</v>
+        <v>-0.14399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B24" s="8">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C24" s="9">
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D24" s="16">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>29.896999999999998</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="G24" s="9">
-        <v>-0.76800000000000002</v>
+        <v>-0.752</v>
       </c>
       <c r="H24" s="15">
         <v>16</v>
       </c>
       <c r="I24" s="9">
-        <v>-1.7999999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="J24" s="9">
-        <v>-0.14399999999999999</v>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B25" s="8">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C25" s="9">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="D25" s="16">
-        <v>3.1E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
       </c>
       <c r="F25" s="9">
-        <v>-0.14299999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G25" s="9">
-        <v>-0.752</v>
+        <v>-0.56799999999999995</v>
       </c>
       <c r="H25" s="15">
         <v>16</v>
       </c>
       <c r="I25" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J25" s="9">
-        <v>-0.129</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B26" s="8">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C26" s="9">
-        <v>-1.6E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D26" s="16">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>0.69699999999999995</v>
+        <v>-0.23100000000000001</v>
       </c>
       <c r="G26" s="9">
-        <v>-0.56799999999999995</v>
+        <v>-0.70599999999999996</v>
       </c>
       <c r="H26" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="J26" s="9">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B27" s="8">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C27" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="D27" s="16">
-        <v>0.01</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
       </c>
       <c r="F27" s="9">
-        <v>-0.23100000000000001</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="G27" s="9">
-        <v>-0.70599999999999996</v>
+        <v>-0.89100000000000001</v>
       </c>
       <c r="H27" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9">
-        <v>-4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J27" s="9">
-        <v>-0.13100000000000001</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B28" s="8">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C28" s="9">
-        <v>-4.2999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D28" s="16">
-        <v>-4.1000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>-0.49299999999999999</v>
+        <v>-0.49199999999999999</v>
       </c>
       <c r="G28" s="9">
-        <v>-0.89100000000000001</v>
+        <v>-0.93600000000000005</v>
       </c>
       <c r="H28" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9">
-        <v>3.2000000000000001E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="J28" s="9">
-        <v>-8.8999999999999996E-2</v>
+        <v>-0.14899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B29" s="8">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="C29" s="9">
-        <v>3.3000000000000002E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="D29" s="16">
-        <v>6.9000000000000006E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
       <c r="F29" s="9">
-        <v>-0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>-0.93600000000000005</v>
+        <v>-0.94199999999999995</v>
       </c>
       <c r="H29" s="15">
         <v>14</v>
       </c>
       <c r="I29" s="9">
-        <v>-7.4999999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J29" s="9">
-        <v>-0.14899999999999999</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B30" s="8">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="C30" s="9">
-        <v>-6.9000000000000006E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="D30" s="16">
-        <v>5.2999999999999999E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1797,30 +1797,30 @@
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>-0.94199999999999995</v>
+        <v>-0.94099999999999995</v>
       </c>
       <c r="H30" s="15">
         <v>14</v>
       </c>
       <c r="I30" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J30" s="9">
-        <v>-0.151</v>
+        <v>-0.14799999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B31" s="8">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C31" s="9">
-        <v>-6.8000000000000005E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D31" s="16">
-        <v>-2.5999999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -1829,112 +1829,112 @@
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <v>-0.94099999999999995</v>
+        <v>-0.93200000000000005</v>
       </c>
       <c r="H31" s="15">
         <v>14</v>
       </c>
       <c r="I31" s="9">
-        <v>-1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J31" s="9">
-        <v>-0.14799999999999999</v>
+        <v>-0.13400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B32" s="8">
-        <v>459</v>
-      </c>
-      <c r="C32" s="9">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>-0.93200000000000005</v>
-      </c>
-      <c r="H32" s="15">
-        <v>14</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="J32" s="9">
-        <v>-0.13400000000000001</v>
+        <v>42614</v>
+      </c>
+      <c r="B32" s="10">
+        <v>452</v>
+      </c>
+      <c r="C32" s="11">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="H32" s="17">
+        <v>15</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-0.14099999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B33" s="10">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C33" s="11">
-        <v>-1.4999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D33" s="18">
-        <v>-4.2999999999999997E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="19">
-        <v>-0.90200000000000002</v>
+        <v>-0.76100000000000001</v>
       </c>
       <c r="H33" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="19">
-        <v>1.0999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="J33" s="19">
-        <v>-0.14299999999999999</v>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
-        <v>42644</v>
-      </c>
-      <c r="B34" s="10">
-        <v>495</v>
-      </c>
-      <c r="C34" s="11">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D34" s="18">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19">
-        <v>-0.76100000000000001</v>
-      </c>
-      <c r="H34" s="17">
+        <v>42675</v>
+      </c>
+      <c r="B34" s="8">
+        <v>513</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D34" s="16">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>16.795000000000002</v>
+      </c>
+      <c r="H34" s="15">
         <v>14</v>
       </c>
-      <c r="I34" s="19">
-        <v>-0.02</v>
-      </c>
-      <c r="J34" s="19">
-        <v>-0.13800000000000001</v>
+      <c r="I34" s="9">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="J34" s="9">
+        <v>-0.129</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1989,418 +1989,418 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B38" s="8">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C38" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D38" s="16">
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E38" s="8">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F38" s="9">
-        <v>3.6999999999999998E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G38" s="9">
-        <v>0.187</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H38" s="15">
-        <v>1578</v>
+        <v>1524</v>
       </c>
       <c r="I38" s="9">
-        <v>-0.05</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="J38" s="9">
-        <v>0.105</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B39" s="8">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C39" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="D39" s="16">
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E39" s="8">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F39" s="9">
-        <v>-0.02</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="G39" s="9">
-        <v>0.14399999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="H39" s="15">
-        <v>1524</v>
+        <v>1605</v>
       </c>
       <c r="I39" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J39" s="9">
-        <v>9.7000000000000003E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B40" s="8">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C40" s="9">
-        <v>-0.01</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D40" s="16">
-        <v>-4.1000000000000002E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E40" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F40" s="9">
-        <v>-3.9E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G40" s="9">
-        <v>0.05</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H40" s="15">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="I40" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J40" s="9">
-        <v>0.105</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B41" s="8">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C41" s="9">
-        <v>-7.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D41" s="16">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E41" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F41" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="G41" s="9">
-        <v>-4.2000000000000003E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H41" s="15">
-        <v>1611</v>
+        <v>1574</v>
       </c>
       <c r="I41" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="J41" s="9">
-        <v>0.109</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B42" s="8">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C42" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D42" s="16">
-        <v>-5.1999999999999998E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E42" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F42" s="9">
-        <v>-0.01</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G42" s="9">
-        <v>-7.1999999999999995E-2</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="H42" s="15">
-        <v>1574</v>
+        <v>1636</v>
       </c>
       <c r="I42" s="9">
-        <v>-2.3E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J42" s="9">
-        <v>8.1000000000000003E-2</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B43" s="8">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C43" s="9">
-        <v>-1.2999999999999999E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D43" s="16">
-        <v>-6.3E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E43" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F43" s="9">
-        <v>-8.9999999999999993E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G43" s="9">
-        <v>-9.1999999999999998E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="H43" s="15">
-        <v>1636</v>
+        <v>1593</v>
       </c>
       <c r="I43" s="9">
-        <v>0.04</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="J43" s="9">
-        <v>0.185</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B44" s="8">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C44" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="D44" s="16">
-        <v>-6.7000000000000004E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E44" s="8">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F44" s="9">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="G44" s="9">
-        <v>-0.106</v>
+        <v>-0.126</v>
       </c>
       <c r="H44" s="15">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="I44" s="9">
-        <v>-2.7E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J44" s="9">
-        <v>5.8999999999999997E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B45" s="8">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C45" s="9">
-        <v>-2.4E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="D45" s="16">
-        <v>-8.7999999999999995E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="E45" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F45" s="9">
-        <v>-1.7000000000000001E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G45" s="9">
-        <v>-0.126</v>
+        <v>-0.112</v>
       </c>
       <c r="H45" s="15">
-        <v>1601</v>
+        <v>1545</v>
       </c>
       <c r="I45" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="J45" s="9">
-        <v>0.14000000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B46" s="8">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C46" s="9">
-        <v>-3.5000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D46" s="16">
-        <v>-0.104</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F46" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G46" s="9">
-        <v>-0.112</v>
+        <v>-0.08</v>
       </c>
       <c r="H46" s="15">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="I46" s="9">
-        <v>-3.5000000000000003E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J46" s="9">
-        <v>9.2999999999999999E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B47" s="8">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C47" s="9">
-        <v>4.2999999999999997E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D47" s="16">
-        <v>-5.6000000000000001E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E47" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F47" s="9">
-        <v>3.6999999999999998E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G47" s="9">
-        <v>-0.08</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H47" s="15">
-        <v>1559</v>
+        <v>1645</v>
       </c>
       <c r="I47" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J47" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B48" s="8">
-        <v>512</v>
-      </c>
-      <c r="C48" s="9">
+        <v>42614</v>
+      </c>
+      <c r="B48" s="10">
+        <v>511</v>
+      </c>
+      <c r="C48" s="11">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D48" s="16">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="E48" s="8">
+      <c r="D48" s="18">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="E48" s="10">
         <v>322</v>
       </c>
-      <c r="F48" s="9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G48" s="9">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="H48" s="15">
-        <v>1645</v>
-      </c>
-      <c r="I48" s="9">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0.01</v>
+      <c r="F48" s="19">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="19">
+        <v>-0.04</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1506</v>
+      </c>
+      <c r="I48" s="19">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="J48" s="19">
+        <v>-9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B49" s="10">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C49" s="11">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D49" s="18">
-        <v>-6.4000000000000001E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E49" s="10">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F49" s="19">
-        <v>-1E-3</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="G49" s="19">
-        <v>-3.7999999999999999E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="H49" s="17">
-        <v>1506</v>
+        <v>1591</v>
       </c>
       <c r="I49" s="19">
-        <v>-8.4000000000000005E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J49" s="19">
-        <v>-9.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B50" s="10">
         <v>505</v>
       </c>
       <c r="C50" s="11">
-        <v>-1.0999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="D50" s="18">
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="E50" s="10">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F50" s="19">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="G50" s="19">
-        <v>-8.8999999999999996E-2</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="H50" s="17">
-        <v>1590</v>
+        <v>1681</v>
       </c>
       <c r="I50" s="19">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="J50" s="19">
-        <v>8.0000000000000002E-3</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2455,418 +2455,418 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B54" s="8">
         <v>19</v>
       </c>
       <c r="C54" s="9">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D54" s="16">
-        <v>-0.625</v>
+        <v>-0.629</v>
       </c>
       <c r="E54" s="8">
         <v>6</v>
       </c>
       <c r="F54" s="9">
-        <v>0.02</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G54" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H54" s="15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9">
-        <v>-1.7999999999999999E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="J54" s="9">
-        <v>-3.7999999999999999E-2</v>
+        <v>-2.3E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B55" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="D55" s="16">
-        <v>-0.629</v>
+        <v>-0.64400000000000002</v>
       </c>
       <c r="E55" s="8">
         <v>6</v>
       </c>
       <c r="F55" s="9">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="G55" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="H55" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9">
-        <v>-5.6000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J55" s="9">
-        <v>-2.3E-2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B56" s="8">
         <v>18</v>
       </c>
       <c r="C56" s="9">
-        <v>-2.7E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D56" s="16">
-        <v>-0.64400000000000002</v>
+        <v>-0.65500000000000003</v>
       </c>
       <c r="E56" s="8">
         <v>6</v>
       </c>
       <c r="F56" s="9">
-        <v>-1.7000000000000001E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="G56" s="9">
-        <v>-2.9000000000000001E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H56" s="15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>-0.16300000000000001</v>
       </c>
       <c r="J56" s="9">
-        <v>-0.04</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B57" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9">
-        <v>-1.4E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="D57" s="16">
-        <v>-0.65500000000000003</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="E57" s="8">
         <v>6</v>
       </c>
       <c r="F57" s="9">
-        <v>-3.7999999999999999E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="G57" s="9">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="H57" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9">
-        <v>-0.16300000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J57" s="9">
-        <v>-0.128</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B58" s="8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C58" s="9">
-        <v>-5.2999999999999999E-2</v>
+        <v>0.31</v>
       </c>
       <c r="D58" s="16">
-        <v>-0.68300000000000005</v>
+        <v>-0.49399999999999999</v>
       </c>
       <c r="E58" s="8">
         <v>6</v>
       </c>
       <c r="F58" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G58" s="9">
-        <v>-0.13800000000000001</v>
+        <v>-1E-3</v>
       </c>
       <c r="H58" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9">
-        <v>7.4999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J58" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B59" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C59" s="9">
-        <v>0.31</v>
+        <v>-0.372</v>
       </c>
       <c r="D59" s="16">
-        <v>-0.49399999999999999</v>
+        <v>-0.66900000000000004</v>
       </c>
       <c r="E59" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="G59" s="9">
-        <v>-1E-3</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H59" s="15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="J59" s="9">
-        <v>0.04</v>
+        <v>-0.13900000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B60" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C60" s="9">
-        <v>-0.372</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D60" s="16">
-        <v>-0.66900000000000004</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="E60" s="8">
         <v>5</v>
       </c>
       <c r="F60" s="9">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G60" s="9">
-        <v>0.28100000000000003</v>
+        <v>-0.20799999999999999</v>
       </c>
       <c r="H60" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9">
-        <v>-4.9000000000000002E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="J60" s="9">
-        <v>-0.13900000000000001</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B61" s="8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C61" s="9">
-        <v>0.64900000000000002</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="D61" s="16">
-        <v>-0.49299999999999999</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="E61" s="8">
         <v>5</v>
       </c>
       <c r="F61" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G61" s="9">
-        <v>-0.20799999999999999</v>
+        <v>-0.192</v>
       </c>
       <c r="H61" s="15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9">
-        <v>-2.9000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="J61" s="9">
-        <v>-0.111</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B62" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="9">
-        <v>-0.26600000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D62" s="16">
-        <v>-0.29199999999999998</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E62" s="8">
         <v>5</v>
       </c>
       <c r="F62" s="9">
-        <v>1E-3</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="G62" s="9">
-        <v>-0.192</v>
+        <v>-0.222</v>
       </c>
       <c r="H62" s="15">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="J62" s="9">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B63" s="8">
         <v>18</v>
       </c>
       <c r="C63" s="9">
-        <v>7.4999999999999997E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="D63" s="16">
-        <v>-4.8000000000000001E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E63" s="8">
         <v>5</v>
       </c>
       <c r="F63" s="9">
-        <v>-7.5999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G63" s="9">
-        <v>-0.222</v>
+        <v>-0.17199999999999999</v>
       </c>
       <c r="H63" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9">
-        <v>-0.10299999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J63" s="9">
-        <v>-0.155</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B64" s="8">
-        <v>18</v>
-      </c>
-      <c r="C64" s="9">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="D64" s="16">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="E64" s="8">
+        <v>42614</v>
+      </c>
+      <c r="B64" s="10">
+        <v>16</v>
+      </c>
+      <c r="C64" s="11">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="D64" s="18">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="E64" s="10">
         <v>5</v>
       </c>
-      <c r="F64" s="9">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G64" s="9">
-        <v>-0.17199999999999999</v>
-      </c>
-      <c r="H64" s="15">
+      <c r="F64" s="19">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="G64" s="19">
+        <v>-0.159</v>
+      </c>
+      <c r="H64" s="17">
         <v>24</v>
       </c>
-      <c r="I64" s="9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="J64" s="9">
-        <v>-8.4000000000000005E-2</v>
+      <c r="I64" s="19">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J64" s="19">
+        <v>-0.13900000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B65" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11">
-        <v>-0.183</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D65" s="18">
-        <v>-0.218</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="E65" s="10">
         <v>5</v>
       </c>
       <c r="F65" s="19">
-        <v>-2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G65" s="19">
-        <v>-0.159</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="H65" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="19">
-        <v>-1.6E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="J65" s="19">
-        <v>-0.14000000000000001</v>
+        <v>-0.14599999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B66" s="10">
         <v>14</v>
       </c>
       <c r="C66" s="11">
-        <v>-5.5E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D66" s="18">
-        <v>-0.27100000000000002</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="E66" s="10">
         <v>5</v>
       </c>
       <c r="F66" s="19">
-        <v>1.2E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G66" s="19">
-        <v>-0.16500000000000001</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="H66" s="17">
         <v>23</v>
       </c>
       <c r="I66" s="19">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="J66" s="19">
-        <v>-0.14599999999999999</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2921,418 +2921,418 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B70" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="9">
-        <v>-2.7E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="D70" s="16">
-        <v>-0.26</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="E70" s="8">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F70" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="G70" s="9">
-        <v>-0.18</v>
+        <v>-0.217</v>
       </c>
       <c r="H70" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I70" s="9">
-        <v>0.27400000000000002</v>
+        <v>-0.754</v>
       </c>
       <c r="J70" s="9">
-        <v>0.06</v>
+        <v>-0.82099999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B71" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="9">
-        <v>-8.5000000000000006E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D71" s="16">
-        <v>-0.26900000000000002</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="E71" s="8">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F71" s="9">
-        <v>-9.2999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G71" s="9">
-        <v>-0.217</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="H71" s="15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9">
-        <v>-0.754</v>
+        <v>3.7</v>
       </c>
       <c r="J71" s="9">
-        <v>-0.82099999999999995</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B72" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="9">
-        <v>4.3999999999999997E-2</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="D72" s="16">
-        <v>-0.26400000000000001</v>
+        <v>-0.32800000000000001</v>
       </c>
       <c r="E72" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F72" s="9">
-        <v>9.0999999999999998E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="G72" s="9">
-        <v>-0.14399999999999999</v>
+        <v>-0.191</v>
       </c>
       <c r="H72" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I72" s="9">
-        <v>3.7</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="J72" s="9">
-        <v>0.45700000000000002</v>
+        <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B73" s="8">
         <v>5</v>
       </c>
       <c r="C73" s="9">
-        <v>-0.19400000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D73" s="16">
-        <v>-0.32800000000000001</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="E73" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F73" s="9">
-        <v>-6.3E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G73" s="9">
-        <v>-0.191</v>
+        <v>-0.151</v>
       </c>
       <c r="H73" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I73" s="9">
-        <v>-0.34899999999999998</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="J73" s="9">
-        <v>-0.16700000000000001</v>
+        <v>-0.56100000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
       </c>
       <c r="C74" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0.125</v>
       </c>
       <c r="D74" s="16">
-        <v>-0.29199999999999998</v>
+        <v>-0.16</v>
       </c>
       <c r="E74" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F74" s="9">
-        <v>4.3999999999999997E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="G74" s="9">
-        <v>-0.151</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="H74" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I74" s="9">
-        <v>-0.46400000000000002</v>
+        <v>1.022</v>
       </c>
       <c r="J74" s="9">
-        <v>-0.56100000000000005</v>
+        <v>1.131</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B75" s="8">
         <v>5</v>
       </c>
       <c r="C75" s="9">
-        <v>0.125</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="D75" s="16">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="E75" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F75" s="9">
-        <v>-1.2E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G75" s="9">
-        <v>-0.17299999999999999</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="H75" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I75" s="9">
-        <v>1.022</v>
+        <v>-0.314</v>
       </c>
       <c r="J75" s="9">
-        <v>1.131</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B76" s="8">
         <v>5</v>
       </c>
       <c r="C76" s="9">
-        <v>-3.6999999999999998E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D76" s="16">
-        <v>-0.23</v>
+        <v>-0.185</v>
       </c>
       <c r="E76" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="9">
-        <v>-8.7999999999999995E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="G76" s="9">
-        <v>-0.19500000000000001</v>
+        <v>-0.18099999999999999</v>
       </c>
       <c r="H76" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I76" s="9">
-        <v>-0.314</v>
+        <v>-0.41</v>
       </c>
       <c r="J76" s="9">
-        <v>0.312</v>
+        <v>-0.754</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B77" s="8">
         <v>5</v>
       </c>
       <c r="C77" s="9">
-        <v>-1.4E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D77" s="16">
-        <v>-0.185</v>
+        <v>-0.128</v>
       </c>
       <c r="E77" s="8">
         <v>100</v>
       </c>
       <c r="F77" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="G77" s="9">
-        <v>-0.18099999999999999</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="H77" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I77" s="9">
-        <v>-0.41</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="J77" s="9">
-        <v>-0.754</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B78" s="8">
         <v>5</v>
       </c>
       <c r="C78" s="9">
-        <v>8.5000000000000006E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="D78" s="16">
-        <v>-0.128</v>
+        <v>-0.153</v>
       </c>
       <c r="E78" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F78" s="9">
-        <v>-1E-3</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="G78" s="9">
-        <v>-0.26300000000000001</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="H78" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I78" s="9">
-        <v>2.2749999999999999</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="J78" s="9">
-        <v>0.72</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B79" s="8">
         <v>5</v>
       </c>
       <c r="C79" s="9">
-        <v>-8.7999999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D79" s="16">
-        <v>-0.153</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E79" s="8">
         <v>97</v>
       </c>
       <c r="F79" s="9">
-        <v>-3.2000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G79" s="9">
-        <v>-0.22700000000000001</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="H79" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I79" s="9">
-        <v>-0.20499999999999999</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="J79" s="9">
-        <v>-4.2000000000000003E-2</v>
+        <v>-0.27300000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B80" s="8">
+        <v>42614</v>
+      </c>
+      <c r="B80" s="10">
         <v>5</v>
       </c>
-      <c r="C80" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D80" s="16">
-        <v>-0.16800000000000001</v>
-      </c>
-      <c r="E80" s="8">
-        <v>97</v>
-      </c>
-      <c r="F80" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G80" s="9">
+      <c r="C80" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D80" s="18">
+        <v>-0.161</v>
+      </c>
+      <c r="E80" s="10">
+        <v>96</v>
+      </c>
+      <c r="F80" s="19">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G80" s="19">
         <v>-0.19900000000000001</v>
       </c>
-      <c r="H80" s="15">
-        <v>5</v>
-      </c>
-      <c r="I80" s="9">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="J80" s="9">
-        <v>-0.27300000000000002</v>
+      <c r="H80" s="17">
+        <v>6</v>
+      </c>
+      <c r="I80" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J80" s="19">
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B81" s="10">
         <v>5</v>
       </c>
       <c r="C81" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="D81" s="18">
-        <v>-0.161</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="E81" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F81" s="19">
-        <v>-1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G81" s="19">
-        <v>-0.20200000000000001</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="H81" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I81" s="19">
-        <v>6.9000000000000006E-2</v>
+        <v>0.155</v>
       </c>
       <c r="J81" s="19">
-        <v>-0.28000000000000003</v>
+        <v>-0.34799999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B82" s="10">
         <v>5</v>
       </c>
       <c r="C82" s="11">
-        <v>-4.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D82" s="18">
-        <v>-0.17699999999999999</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E82" s="10">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F82" s="19">
-        <v>6.0000000000000001E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G82" s="19">
-        <v>-0.17699999999999999</v>
+        <v>-0.106</v>
       </c>
       <c r="H82" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I82" s="19">
-        <v>0.17</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J82" s="19">
-        <v>-0.33900000000000002</v>
+        <v>1.554</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3387,418 +3387,418 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B86" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" s="9">
-        <v>-1.2E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="D86" s="16">
-        <v>-0.105</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="E86" s="8">
         <v>17</v>
       </c>
       <c r="F86" s="9">
-        <v>-8.9999999999999993E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="G86" s="9">
-        <v>-0.14599999999999999</v>
+        <v>-0.129</v>
       </c>
       <c r="H86" s="15">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9">
-        <v>-8.9999999999999993E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="J86" s="9">
-        <v>-9.2999999999999999E-2</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B87" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C87" s="9">
-        <v>-1.6E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="D87" s="16">
-        <v>-0.10100000000000001</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="E87" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87" s="9">
-        <v>-1.2E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G87" s="9">
-        <v>-0.129</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="H87" s="15">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="J87" s="9">
-        <v>-0.12</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B88" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C88" s="9">
-        <v>-2.4E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D88" s="16">
-        <v>-0.13400000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="E88" s="8">
         <v>16</v>
       </c>
       <c r="F88" s="9">
-        <v>-2.3E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="G88" s="9">
-        <v>-0.17699999999999999</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="H88" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9">
-        <v>-0.03</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="J88" s="9">
-        <v>-0.157</v>
+        <v>-0.14699999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B89" s="8">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C89" s="9">
-        <v>-3.2000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D89" s="16">
-        <v>-0.152</v>
+        <v>-0.109</v>
       </c>
       <c r="E89" s="8">
         <v>16</v>
       </c>
       <c r="F89" s="9">
-        <v>-5.0999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G89" s="9">
-        <v>-0.17899999999999999</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="H89" s="15">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9">
-        <v>-1.6E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="J89" s="9">
-        <v>-0.14699999999999999</v>
+        <v>-0.17699999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B90" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C90" s="9">
-        <v>4.2000000000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D90" s="16">
-        <v>-0.109</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E90" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="G90" s="9">
-        <v>-0.13500000000000001</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="H90" s="15">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9">
-        <v>-0.02</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="J90" s="9">
-        <v>-0.17699999999999999</v>
+        <v>-0.21299999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B91" s="8">
         <v>164</v>
       </c>
       <c r="C91" s="9">
-        <v>0.01</v>
+        <v>-1E-3</v>
       </c>
       <c r="D91" s="16">
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E91" s="8">
         <v>15</v>
       </c>
       <c r="F91" s="9">
-        <v>-3.1E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="G91" s="9">
-        <v>-0.16600000000000001</v>
+        <v>-0.159</v>
       </c>
       <c r="H91" s="15">
         <v>57</v>
       </c>
       <c r="I91" s="9">
-        <v>-3.5000000000000003E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J91" s="9">
-        <v>-0.21299999999999999</v>
+        <v>-0.218</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B92" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C92" s="9">
-        <v>-1E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="D92" s="16">
-        <v>-6.2E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="E92" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92" s="9">
-        <v>-1.7000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G92" s="9">
-        <v>-0.159</v>
+        <v>-0.12</v>
       </c>
       <c r="H92" s="15">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J92" s="9">
-        <v>-0.218</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B93" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C93" s="9">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="D93" s="16">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="E93" s="8">
         <v>16</v>
       </c>
       <c r="F93" s="9">
-        <v>3.9E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G93" s="9">
-        <v>-0.12</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="H93" s="15">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9">
-        <v>3.6999999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J93" s="9">
-        <v>-0.185</v>
+        <v>-0.11799999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B94" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C94" s="9">
-        <v>-0.03</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="D94" s="16">
-        <v>-0.09</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E94" s="8">
         <v>16</v>
       </c>
       <c r="F94" s="9">
-        <v>1.9E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="G94" s="9">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="H94" s="15">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9">
-        <v>3.2000000000000001E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J94" s="9">
-        <v>-0.11799999999999999</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B95" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="9">
-        <v>-2.4E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D95" s="16">
-        <v>-9.4E-2</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="E95" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="G95" s="9">
-        <v>-0.10100000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="H95" s="15">
         <v>59</v>
       </c>
       <c r="I95" s="9">
-        <v>-3.7999999999999999E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="J95" s="9">
-        <v>-0.128</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B96" s="8">
-        <v>151</v>
-      </c>
-      <c r="C96" s="9">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="D96" s="16">
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="E96" s="8">
-        <v>15</v>
-      </c>
-      <c r="F96" s="9">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G96" s="9">
-        <v>-0.114</v>
-      </c>
-      <c r="H96" s="15">
-        <v>59</v>
-      </c>
-      <c r="I96" s="9">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J96" s="9">
-        <v>-0.111</v>
+        <v>42614</v>
+      </c>
+      <c r="B96" s="10">
+        <v>155</v>
+      </c>
+      <c r="C96" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D96" s="18">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="E96" s="10">
+        <v>16</v>
+      </c>
+      <c r="F96" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G96" s="19">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="H96" s="17">
+        <v>57</v>
+      </c>
+      <c r="I96" s="19">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="J96" s="19">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B97" s="10">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D97" s="18">
-        <v>-8.7999999999999995E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E97" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F97" s="19">
-        <v>3.7999999999999999E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="G97" s="19">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="H97" s="17">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I97" s="19">
-        <v>-1.6E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J97" s="19">
-        <v>-0.11899999999999999</v>
+        <v>-0.13700000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B98" s="10">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C98" s="11">
-        <v>-1.2999999999999999E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="D98" s="18">
-        <v>-8.8999999999999996E-2</v>
+        <v>-0.123</v>
       </c>
       <c r="E98" s="10">
         <v>15</v>
       </c>
       <c r="F98" s="19">
-        <v>-3.6999999999999998E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="G98" s="19">
-        <v>-9.6000000000000002E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="H98" s="17">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I98" s="19">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="J98" s="19">
-        <v>-0.126</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3853,418 +3853,418 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B102" s="8">
         <v>0</v>
       </c>
       <c r="C102" s="9">
-        <v>2.4E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="D102" s="16">
-        <v>-0.17899999999999999</v>
+        <v>-0.17199999999999999</v>
       </c>
       <c r="E102" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F102" s="9">
-        <v>-1.9E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G102" s="9">
-        <v>-0.13300000000000001</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="H102" s="15">
         <v>7</v>
       </c>
       <c r="I102" s="9">
-        <v>-5.7000000000000002E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="J102" s="9">
-        <v>-0.151</v>
+        <v>-0.29599999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B103" s="8">
         <v>0</v>
       </c>
       <c r="C103" s="9">
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D103" s="16">
-        <v>-0.17199999999999999</v>
+        <v>-0.157</v>
       </c>
       <c r="E103" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F103" s="9">
-        <v>-0.01</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="G103" s="9">
-        <v>-0.14499999999999999</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="H103" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I103" s="9">
-        <v>-7.1999999999999995E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="J103" s="9">
-        <v>-0.29599999999999999</v>
+        <v>-0.25800000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B104" s="8">
         <v>0</v>
       </c>
       <c r="C104" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="D104" s="16">
-        <v>-0.157</v>
+        <v>-0.183</v>
       </c>
       <c r="E104" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="9">
-        <v>-1.4E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="G104" s="9">
-        <v>-0.17299999999999999</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="H104" s="15">
         <v>6</v>
       </c>
       <c r="I104" s="9">
-        <v>-4.2999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J104" s="9">
-        <v>-0.25800000000000001</v>
+        <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B105" s="8">
         <v>0</v>
       </c>
       <c r="C105" s="9">
-        <v>-6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="D105" s="16">
-        <v>-0.183</v>
+        <v>-0.11</v>
       </c>
       <c r="E105" s="8">
         <v>69</v>
       </c>
       <c r="F105" s="9">
-        <v>-3.6999999999999998E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="G105" s="9">
-        <v>-0.17699999999999999</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="H105" s="15">
         <v>6</v>
       </c>
       <c r="I105" s="9">
-        <v>2.1999999999999999E-2</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="J105" s="9">
-        <v>-0.23699999999999999</v>
+        <v>-0.376</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B106" s="8">
         <v>0</v>
       </c>
       <c r="C106" s="9">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D106" s="16">
-        <v>-0.11</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E106" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F106" s="9">
-        <v>-1E-3</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="G106" s="9">
-        <v>-0.20200000000000001</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="H106" s="15">
         <v>6</v>
       </c>
       <c r="I106" s="9">
-        <v>-8.1000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J106" s="9">
-        <v>-0.376</v>
+        <v>-0.30099999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B107" s="8">
         <v>0</v>
       </c>
       <c r="C107" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="D107" s="16">
-        <v>-9.4E-2</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="E107" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F107" s="9">
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="G107" s="9">
-        <v>-0.20499999999999999</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="H107" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I107" s="9">
-        <v>4.1000000000000002E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J107" s="9">
-        <v>-0.30099999999999999</v>
+        <v>-0.22600000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B108" s="8">
         <v>0</v>
       </c>
       <c r="C108" s="9">
-        <v>-0.02</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="D108" s="16">
-        <v>-0.16900000000000001</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="E108" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F108" s="9">
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="G108" s="9">
-        <v>-0.19600000000000001</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="H108" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I108" s="9">
-        <v>7.1999999999999995E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="J108" s="9">
-        <v>-0.22600000000000001</v>
+        <v>-0.23499999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B109" s="8">
         <v>0</v>
       </c>
       <c r="C109" s="9">
-        <v>-8.3000000000000004E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D109" s="16">
-        <v>-0.17499999999999999</v>
+        <v>-0.123</v>
       </c>
       <c r="E109" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F109" s="9">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="G109" s="9">
-        <v>-0.19900000000000001</v>
+        <v>-0.188</v>
       </c>
       <c r="H109" s="15">
         <v>6</v>
       </c>
       <c r="I109" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="J109" s="9">
-        <v>-0.23499999999999999</v>
+        <v>-0.23799999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B110" s="8">
         <v>0</v>
       </c>
       <c r="C110" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>-0.114</v>
       </c>
       <c r="D110" s="16">
-        <v>-0.123</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="E110" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F110" s="9">
-        <v>-1.6E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="G110" s="9">
-        <v>-0.188</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="H110" s="15">
         <v>6</v>
       </c>
       <c r="I110" s="9">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="J110" s="9">
-        <v>-0.23799999999999999</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B111" s="8">
         <v>0</v>
       </c>
       <c r="C111" s="9">
-        <v>-0.114</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D111" s="16">
-        <v>-0.23599999999999999</v>
+        <v>-0.21199999999999999</v>
       </c>
       <c r="E111" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F111" s="9">
-        <v>-0.03</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G111" s="9">
-        <v>-0.21299999999999999</v>
+        <v>-0.19</v>
       </c>
       <c r="H111" s="15">
         <v>6</v>
       </c>
       <c r="I111" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="J111" s="9">
-        <v>-0.185</v>
+        <v>-0.33100000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B112" s="8">
-        <v>0</v>
-      </c>
-      <c r="C112" s="9">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D112" s="16">
-        <v>-0.21199999999999999</v>
-      </c>
-      <c r="E112" s="8">
+        <v>42614</v>
+      </c>
+      <c r="B112" s="10">
+        <v>0</v>
+      </c>
+      <c r="C112" s="11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D112" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="E112" s="10">
         <v>61</v>
       </c>
-      <c r="F112" s="9">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="G112" s="9">
-        <v>-0.19</v>
-      </c>
-      <c r="H112" s="15">
+      <c r="F112" s="19">
+        <v>-2E-3</v>
+      </c>
+      <c r="G112" s="19">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="H112" s="17">
         <v>6</v>
       </c>
-      <c r="I112" s="9">
-        <v>-1E-3</v>
-      </c>
-      <c r="J112" s="9">
-        <v>-0.33100000000000002</v>
+      <c r="I112" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="J112" s="19">
+        <v>-0.191</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
       </c>
       <c r="C113" s="11">
-        <v>6.3E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D113" s="18">
-        <v>-0.15</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="E113" s="10">
         <v>61</v>
       </c>
       <c r="F113" s="19">
-        <v>-1E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G113" s="19">
-        <v>-0.18099999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="H113" s="17">
         <v>6</v>
       </c>
       <c r="I113" s="19">
-        <v>-1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J113" s="19">
-        <v>-0.19500000000000001</v>
+        <v>-0.13500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
       </c>
       <c r="C114" s="11">
-        <v>-2.9000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D114" s="18">
-        <v>-0.19400000000000001</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E114" s="10">
         <v>61</v>
       </c>
       <c r="F114" s="19">
-        <v>-5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G114" s="19">
-        <v>-0.16900000000000001</v>
+        <v>-0.161</v>
       </c>
       <c r="H114" s="17">
         <v>6</v>
       </c>
       <c r="I114" s="19">
-        <v>-2.9000000000000001E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="J114" s="19">
-        <v>-0.17100000000000001</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -4328,25 +4328,25 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B118" s="8">
         <v>1</v>
       </c>
       <c r="C118" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D118" s="16">
-        <v>-0.14399999999999999</v>
+        <v>-0.11</v>
       </c>
       <c r="E118" s="8">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F118" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G118" s="9">
-        <v>9.4E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H118" s="15">
         <v>1</v>
@@ -4360,25 +4360,25 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
       </c>
       <c r="C119" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="D119" s="16">
-        <v>-0.11</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="E119" s="8">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="F119" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>-0.129</v>
       </c>
       <c r="G119" s="9">
-        <v>9.9000000000000005E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="H119" s="15">
         <v>1</v>
@@ -4392,25 +4392,25 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B120" s="8">
         <v>1</v>
       </c>
       <c r="C120" s="9">
-        <v>-0.03</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D120" s="16">
-        <v>-0.16400000000000001</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E120" s="8">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="F120" s="9">
-        <v>-0.129</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G120" s="9">
-        <v>-5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H120" s="15">
         <v>1</v>
@@ -4419,30 +4419,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="9">
-        <v>-0.18099999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B121" s="8">
         <v>1</v>
       </c>
       <c r="C121" s="9">
-        <v>-1.2E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D121" s="16">
-        <v>-9.8000000000000004E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E121" s="8">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="F121" s="9">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G121" s="9">
-        <v>4.9000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H121" s="15">
         <v>1</v>
@@ -4456,25 +4456,25 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B122" s="8">
         <v>1</v>
       </c>
       <c r="C122" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D122" s="16">
-        <v>-5.6000000000000001E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E122" s="8">
         <v>409</v>
       </c>
       <c r="F122" s="9">
-        <v>7.0999999999999994E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="G122" s="9">
-        <v>5.5E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H122" s="15">
         <v>1</v>
@@ -4488,25 +4488,25 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B123" s="8">
         <v>1</v>
       </c>
       <c r="C123" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="D123" s="16">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.112</v>
       </c>
       <c r="E123" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F123" s="9">
-        <v>-1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G123" s="9">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="H123" s="15">
         <v>1</v>
@@ -4520,25 +4520,25 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B124" s="8">
         <v>1</v>
       </c>
       <c r="C124" s="9">
-        <v>-2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D124" s="16">
-        <v>-0.112</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E124" s="8">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F124" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G124" s="9">
-        <v>-0.03</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="H124" s="15">
         <v>1</v>
@@ -4552,25 +4552,25 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B125" s="8">
         <v>1</v>
       </c>
       <c r="C125" s="9">
-        <v>2.7E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D125" s="16">
-        <v>-4.1000000000000002E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="E125" s="8">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F125" s="9">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G125" s="9">
-        <v>-6.5000000000000002E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H125" s="15">
         <v>1</v>
@@ -4584,25 +4584,25 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B126" s="8">
         <v>1</v>
       </c>
       <c r="C126" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="D126" s="16">
-        <v>-1E-3</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E126" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F126" s="9">
-        <v>-0.01</v>
+        <v>-2E-3</v>
       </c>
       <c r="G126" s="9">
-        <v>-4.8000000000000001E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="H126" s="15">
         <v>1</v>
@@ -4616,25 +4616,25 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B127" s="8">
         <v>1</v>
       </c>
       <c r="C127" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D127" s="16">
-        <v>-4.3999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E127" s="8">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F127" s="9">
-        <v>-2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G127" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="H127" s="15">
         <v>1</v>
@@ -4648,57 +4648,57 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B128" s="8">
+        <v>42614</v>
+      </c>
+      <c r="B128" s="10">
         <v>1</v>
       </c>
-      <c r="C128" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D128" s="16">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E128" s="8">
-        <v>395</v>
-      </c>
-      <c r="F128" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G128" s="9">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="H128" s="15">
+      <c r="C128" s="11">
+        <v>0</v>
+      </c>
+      <c r="D128" s="18">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E128" s="10">
+        <v>402</v>
+      </c>
+      <c r="F128" s="19">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G128" s="19">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="H128" s="17">
         <v>1</v>
       </c>
-      <c r="I128" s="9">
-        <v>0</v>
-      </c>
-      <c r="J128" s="9">
+      <c r="I128" s="19">
+        <v>0</v>
+      </c>
+      <c r="J128" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B129" s="10">
         <v>1</v>
       </c>
       <c r="C129" s="11">
-        <v>-3.1E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D129" s="18">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E129" s="10">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F129" s="19">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G129" s="19">
-        <v>-2.3E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H129" s="17">
         <v>1</v>
@@ -4712,25 +4712,25 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B130" s="10">
         <v>1</v>
       </c>
       <c r="C130" s="11">
-        <v>-7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D130" s="18">
-        <v>-3.6999999999999998E-2</v>
+        <v>0.114</v>
       </c>
       <c r="E130" s="10">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F130" s="19">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G130" s="19">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H130" s="17">
         <v>1</v>
@@ -4803,48 +4803,48 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B134" s="8">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="C134" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D134" s="16">
-        <v>-8.9999999999999993E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E134" s="8">
         <v>79</v>
       </c>
       <c r="F134" s="9">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G134" s="9">
         <v>0.59099999999999997</v>
       </c>
       <c r="H134" s="15">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I134" s="9">
-        <v>0</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="J134" s="9">
-        <v>-8.5000000000000006E-2</v>
+        <v>-0.11700000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B135" s="8">
-        <v>1174</v>
+        <v>1145</v>
       </c>
       <c r="C135" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D135" s="16">
-        <v>-6.0000000000000001E-3</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E135" s="8">
         <v>79</v>
@@ -4856,365 +4856,365 @@
         <v>0.59099999999999997</v>
       </c>
       <c r="H135" s="15">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I135" s="9">
-        <v>-2.4E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="J135" s="9">
-        <v>-0.11700000000000001</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B136" s="8">
-        <v>1145</v>
+        <v>1110</v>
       </c>
       <c r="C136" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="D136" s="16">
-        <v>-6.2E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E136" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F136" s="9">
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G136" s="9">
-        <v>0.59099999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="H136" s="15">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="I136" s="9">
-        <v>-1.9E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J136" s="9">
-        <v>-4.3999999999999997E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B137" s="8">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C137" s="9">
-        <v>-3.1E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D137" s="16">
-        <v>-6.0999999999999999E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E137" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F137" s="9">
-        <v>-7.0000000000000007E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G137" s="9">
-        <v>0.22</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H137" s="15">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="I137" s="9">
-        <v>0.05</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J137" s="9">
-        <v>-7.1999999999999995E-2</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B138" s="8">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="C138" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D138" s="16">
-        <v>-4.8000000000000001E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E138" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F138" s="9">
-        <v>1.9E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="G138" s="9">
-        <v>0.24299999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H138" s="15">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I138" s="9">
-        <v>4.8000000000000001E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="J138" s="9">
-        <v>-3.9E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B139" s="8">
-        <v>1107</v>
+        <v>1040</v>
       </c>
       <c r="C139" s="9">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.06</v>
       </c>
       <c r="D139" s="16">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.105</v>
       </c>
       <c r="E139" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F139" s="9">
-        <v>-0.03</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="G139" s="9">
-        <v>0.20499999999999999</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="H139" s="15">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I139" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="J139" s="9">
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B140" s="8">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C140" s="9">
-        <v>-0.06</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D140" s="16">
-        <v>-0.105</v>
+        <v>-0.127</v>
       </c>
       <c r="E140" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F140" s="9">
-        <v>-6.0999999999999999E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="G140" s="9">
-        <v>-5.8000000000000003E-2</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="H140" s="15">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="I140" s="9">
-        <v>-2.8000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J140" s="9">
-        <v>-8.6999999999999994E-2</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B141" s="8">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C141" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="D141" s="16">
-        <v>-0.127</v>
+        <v>-0.15</v>
       </c>
       <c r="E141" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F141" s="9">
-        <v>-4.2000000000000003E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G141" s="9">
-        <v>-9.8000000000000004E-2</v>
+        <v>-0.111</v>
       </c>
       <c r="H141" s="15">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I141" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="J141" s="9">
-        <v>-3.9E-2</v>
+        <v>-1.9E-2</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B142" s="8">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C142" s="9">
-        <v>-0.02</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D142" s="16">
-        <v>-0.15</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="E142" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F142" s="9">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="G142" s="9">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="H142" s="15">
+        <v>417</v>
+      </c>
+      <c r="I142" s="9">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G142" s="9">
-        <v>-0.111</v>
-      </c>
-      <c r="H142" s="15">
-        <v>424</v>
-      </c>
-      <c r="I142" s="9">
-        <v>-1.2E-2</v>
-      </c>
       <c r="J142" s="9">
-        <v>-1.9E-2</v>
+        <v>-1.4E-2</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B143" s="8">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="C143" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D143" s="16">
-        <v>-0.14499999999999999</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="E143" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F143" s="9">
-        <v>-6.9000000000000006E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="G143" s="9">
-        <v>-0.18099999999999999</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="H143" s="15">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I143" s="9">
-        <v>-1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J143" s="9">
-        <v>-1.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B144" s="8">
-        <v>977</v>
-      </c>
-      <c r="C144" s="9">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="D144" s="16">
-        <v>-0.17299999999999999</v>
-      </c>
-      <c r="E144" s="8">
-        <v>55</v>
-      </c>
-      <c r="F144" s="9">
-        <v>-7.6999999999999999E-2</v>
-      </c>
-      <c r="G144" s="9">
-        <v>-0.24399999999999999</v>
-      </c>
-      <c r="H144" s="15">
-        <v>424</v>
-      </c>
-      <c r="I144" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J144" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>42614</v>
+      </c>
+      <c r="B144" s="10">
+        <v>964</v>
+      </c>
+      <c r="C144" s="11">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="D144" s="18">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="E144" s="10">
+        <v>51</v>
+      </c>
+      <c r="F144" s="19">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="G144" s="19">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="H144" s="17">
+        <v>411</v>
+      </c>
+      <c r="I144" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="J144" s="19">
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B145" s="10">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="C145" s="11">
-        <v>-1.2999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D145" s="18">
-        <v>-0.16500000000000001</v>
+        <v>-0.112</v>
       </c>
       <c r="E145" s="10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F145" s="19">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="G145" s="19">
-        <v>-0.30199999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="H145" s="17">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="I145" s="19">
-        <v>-2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J145" s="19">
-        <v>-6.0000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B146" s="10">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="C146" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D146" s="18">
-        <v>-0.111</v>
+        <v>-0.124</v>
       </c>
       <c r="E146" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F146" s="19">
-        <v>-0.04</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G146" s="19">
-        <v>-0.38</v>
+        <v>-0.38400000000000001</v>
       </c>
       <c r="H146" s="17">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I146" s="19">
-        <v>3.1E-2</v>
+        <v>0</v>
       </c>
       <c r="J146" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -5278,418 +5278,418 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B150" s="8">
         <v>19</v>
       </c>
       <c r="C150" s="9">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D150" s="16">
-        <v>-3.6999999999999998E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E150" s="8">
         <v>4</v>
       </c>
       <c r="F150" s="9">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="G150" s="9">
-        <v>-0.125</v>
-      </c>
-      <c r="H150" s="15">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G150" s="16">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="H150" s="8">
         <v>1</v>
       </c>
       <c r="I150" s="9">
         <v>0</v>
       </c>
-      <c r="J150" s="9">
+      <c r="J150" s="16">
         <v>-0.104</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B151" s="8">
         <v>19</v>
       </c>
       <c r="C151" s="9">
-        <v>1.6E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D151" s="16">
-        <v>-2.1000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E151" s="8">
         <v>4</v>
       </c>
       <c r="F151" s="9">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G151" s="9">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="H151" s="15">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G151" s="16">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="H151" s="8">
         <v>1</v>
       </c>
       <c r="I151" s="9">
         <v>0</v>
       </c>
-      <c r="J151" s="9">
+      <c r="J151" s="16">
         <v>-0.104</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B152" s="8">
         <v>19</v>
       </c>
       <c r="C152" s="9">
-        <v>2.1999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="D152" s="16">
-        <v>1E-3</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E152" s="8">
         <v>4</v>
       </c>
       <c r="F152" s="9">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="G152" s="9">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="H152" s="15">
+        <v>-1E-3</v>
+      </c>
+      <c r="G152" s="16">
+        <v>-0.188</v>
+      </c>
+      <c r="H152" s="8">
         <v>1</v>
       </c>
       <c r="I152" s="9">
-        <v>0</v>
-      </c>
-      <c r="J152" s="9">
-        <v>-0.104</v>
+        <v>-0.253</v>
+      </c>
+      <c r="J152" s="16">
+        <v>-0.253</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B153" s="8">
         <v>19</v>
       </c>
       <c r="C153" s="9">
-        <v>-2E-3</v>
+        <v>-0.04</v>
       </c>
       <c r="D153" s="16">
-        <v>6.7000000000000004E-2</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="E153" s="8">
         <v>4</v>
       </c>
       <c r="F153" s="9">
-        <v>-1E-3</v>
-      </c>
-      <c r="G153" s="9">
-        <v>-0.188</v>
-      </c>
-      <c r="H153" s="15">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G153" s="16">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="H153" s="8">
         <v>1</v>
       </c>
       <c r="I153" s="9">
-        <v>-0.253</v>
-      </c>
-      <c r="J153" s="9">
-        <v>-0.253</v>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J153" s="16">
+        <v>-0.155</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B154" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C154" s="9">
-        <v>-0.04</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D154" s="16">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="E154" s="8">
         <v>4</v>
       </c>
       <c r="F154" s="9">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="G154" s="9">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="H154" s="15">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="G154" s="16">
+        <v>-0.18</v>
+      </c>
+      <c r="H154" s="8">
         <v>1</v>
       </c>
       <c r="I154" s="9">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J154" s="9">
-        <v>-0.155</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="J154" s="16">
+        <v>-0.14299999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B155" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C155" s="9">
-        <v>-2.9000000000000001E-2</v>
+        <v>0.112</v>
       </c>
       <c r="D155" s="16">
-        <v>-0.10100000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E155" s="8">
         <v>4</v>
       </c>
       <c r="F155" s="9">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="G155" s="9">
-        <v>-0.18</v>
-      </c>
-      <c r="H155" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="G155" s="16">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="H155" s="8">
         <v>1</v>
       </c>
       <c r="I155" s="9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J155" s="9">
-        <v>-0.14299999999999999</v>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J155" s="16">
+        <v>-0.11799999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B156" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C156" s="9">
-        <v>0.112</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="D156" s="16">
-        <v>1.4E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E156" s="8">
         <v>4</v>
       </c>
       <c r="F156" s="9">
-        <v>-0.03</v>
-      </c>
-      <c r="G156" s="9">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="H156" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G156" s="16">
+        <v>-0.13</v>
+      </c>
+      <c r="H156" s="8">
         <v>1</v>
       </c>
       <c r="I156" s="9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J156" s="9">
-        <v>-0.11799999999999999</v>
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="J156" s="16">
+        <v>-0.14299999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B157" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C157" s="9">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="D157" s="16">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.18</v>
       </c>
       <c r="E157" s="8">
         <v>4</v>
       </c>
       <c r="F157" s="9">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G157" s="9">
-        <v>-0.13</v>
-      </c>
-      <c r="H157" s="15">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="G157" s="16">
+        <v>-0.124</v>
+      </c>
+      <c r="H157" s="8">
         <v>1</v>
       </c>
       <c r="I157" s="9">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="J157" s="9">
-        <v>-0.14299999999999999</v>
+        <v>0.157</v>
+      </c>
+      <c r="J157" s="16">
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B158" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C158" s="9">
-        <v>-0.14899999999999999</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D158" s="16">
-        <v>-0.18</v>
+        <v>-0.20100000000000001</v>
       </c>
       <c r="E158" s="8">
         <v>4</v>
       </c>
       <c r="F158" s="9">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="G158" s="9">
-        <v>-0.124</v>
-      </c>
-      <c r="H158" s="15">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G158" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="H158" s="8">
         <v>1</v>
       </c>
       <c r="I158" s="9">
-        <v>0.157</v>
-      </c>
-      <c r="J158" s="9">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.247</v>
+      </c>
+      <c r="J158" s="16">
+        <v>-0.253</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B159" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C159" s="9">
-        <v>-1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D159" s="16">
-        <v>-0.20100000000000001</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="E159" s="8">
         <v>4</v>
       </c>
       <c r="F159" s="9">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="G159" s="9">
-        <v>-0.15</v>
-      </c>
-      <c r="H159" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G159" s="16">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="H159" s="8">
         <v>1</v>
       </c>
       <c r="I159" s="9">
-        <v>-0.247</v>
-      </c>
-      <c r="J159" s="9">
-        <v>-0.253</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J159" s="16">
+        <v>-3.1E-2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="25">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B160" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C160" s="9">
-        <v>1.4E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D160" s="16">
-        <v>-0.13900000000000001</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="E160" s="8">
         <v>4</v>
       </c>
       <c r="F160" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G160" s="9">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="H160" s="15">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="G160" s="16">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="H160" s="8">
         <v>1</v>
       </c>
       <c r="I160" s="9">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="J160" s="9">
-        <v>-3.1E-2</v>
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="J160" s="16">
+        <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="25">
-        <v>42614</v>
-      </c>
-      <c r="B161" s="10">
+        <v>42644</v>
+      </c>
+      <c r="B161" s="8">
         <v>15</v>
       </c>
-      <c r="C161" s="11">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="D161" s="18">
-        <v>-0.17299999999999999</v>
-      </c>
-      <c r="E161" s="10">
+      <c r="C161" s="9">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="D161" s="16">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="E161" s="8">
         <v>4</v>
       </c>
-      <c r="F161" s="19">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="G161" s="19">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="H161" s="17">
+      <c r="F161" s="9">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="G161" s="16">
+        <v>-0.152</v>
+      </c>
+      <c r="H161" s="8">
         <v>1</v>
       </c>
-      <c r="I161" s="19">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="J161" s="19">
-        <v>-9.7000000000000003E-2</v>
+      <c r="I161" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J161" s="16">
+        <v>-0.11799999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="25">
-        <v>42644</v>
-      </c>
-      <c r="B162" s="10">
-        <v>15</v>
-      </c>
-      <c r="C162" s="11">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="D162" s="18">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="E162" s="10">
+        <v>42675</v>
+      </c>
+      <c r="B162" s="8">
+        <v>16</v>
+      </c>
+      <c r="C162" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D162" s="16">
+        <v>-0.161</v>
+      </c>
+      <c r="E162" s="8">
         <v>4</v>
       </c>
-      <c r="F162" s="19">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="G162" s="19">
-        <v>-0.152</v>
-      </c>
-      <c r="H162" s="17">
+      <c r="F162" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="G162" s="16">
+        <v>-0.115</v>
+      </c>
+      <c r="H162" s="8">
         <v>1</v>
       </c>
-      <c r="I162" s="19">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J162" s="19">
-        <v>-4.3999999999999997E-2</v>
+      <c r="I162" s="9">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="J162" s="16">
+        <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5744,57 +5744,57 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B166" s="8">
-        <v>3404</v>
+        <v>3409</v>
       </c>
       <c r="C166" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D166" s="16">
-        <v>0.02</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E166" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F166" s="9">
-        <v>-2.3E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="G166" s="9">
-        <v>-0.19800000000000001</v>
+        <v>-0.218</v>
       </c>
       <c r="H166" s="15">
         <v>0</v>
       </c>
       <c r="I166" s="9">
-        <v>-0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J166" s="9">
-        <v>-0.73899999999999999</v>
+        <v>-0.40300000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B167" s="8">
-        <v>3409</v>
+        <v>3348</v>
       </c>
       <c r="C167" s="9">
-        <v>1E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D167" s="16">
-        <v>-6.0000000000000001E-3</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E167" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F167" s="9">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="G167" s="9">
-        <v>-0.218</v>
+        <v>-0.223</v>
       </c>
       <c r="H167" s="15">
         <v>0</v>
@@ -5803,30 +5803,30 @@
         <v>0</v>
       </c>
       <c r="J167" s="9">
-        <v>-0.40300000000000002</v>
+        <v>-0.73399999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B168" s="8">
-        <v>3348</v>
+        <v>3361</v>
       </c>
       <c r="C168" s="9">
-        <v>-1.7999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D168" s="16">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E168" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F168" s="9">
-        <v>-0.01</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="G168" s="9">
-        <v>-0.223</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H168" s="15">
         <v>0</v>
@@ -5835,30 +5835,30 @@
         <v>0</v>
       </c>
       <c r="J168" s="9">
-        <v>-0.73399999999999999</v>
+        <v>-0.747</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B169" s="8">
-        <v>3361</v>
+        <v>3315</v>
       </c>
       <c r="C169" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D169" s="16">
-        <v>-0.02</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E169" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F169" s="9">
-        <v>-2.9000000000000001E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="G169" s="9">
-        <v>-0.22500000000000001</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="H169" s="15">
         <v>0</v>
@@ -5867,30 +5867,30 @@
         <v>0</v>
       </c>
       <c r="J169" s="9">
-        <v>-0.747</v>
+        <v>-0.61599999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B170" s="8">
-        <v>3315</v>
+        <v>3295</v>
       </c>
       <c r="C170" s="9">
-        <v>-1.4E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D170" s="16">
-        <v>-6.4000000000000001E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E170" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F170" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="G170" s="9">
-        <v>-0.24199999999999999</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="H170" s="15">
         <v>0</v>
@@ -5899,263 +5899,263 @@
         <v>0</v>
       </c>
       <c r="J170" s="9">
-        <v>-0.61599999999999999</v>
+        <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B171" s="8">
-        <v>3295</v>
+        <v>3245</v>
       </c>
       <c r="C171" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D171" s="16">
-        <v>-8.4000000000000005E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E171" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F171" s="9">
-        <v>-1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G171" s="9">
-        <v>-0.25900000000000001</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="H171" s="15">
         <v>0</v>
       </c>
       <c r="I171" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" s="9">
-        <v>-0.16700000000000001</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B172" s="8">
-        <v>3245</v>
+        <v>3193</v>
       </c>
       <c r="C172" s="9">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="D172" s="16">
-        <v>-8.6999999999999994E-2</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E172" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F172" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G172" s="9">
-        <v>-0.23300000000000001</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="H172" s="15">
         <v>0</v>
       </c>
       <c r="I172" s="9">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="J172" s="9">
-        <v>-0.215</v>
+        <v>-0.22900000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B173" s="8">
-        <v>3193</v>
+        <v>3174</v>
       </c>
       <c r="C173" s="9">
-        <v>-1.6E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D173" s="16">
-        <v>-9.4E-2</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E173" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F173" s="9">
-        <v>-2.3E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="G173" s="9">
-        <v>-0.24099999999999999</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="H173" s="15">
         <v>0</v>
       </c>
       <c r="I173" s="9">
-        <v>-0.5</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="J173" s="9">
-        <v>-0.22900000000000001</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B174" s="8">
-        <v>3174</v>
+        <v>3161</v>
       </c>
       <c r="C174" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D174" s="16">
-        <v>-8.3000000000000004E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E174" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F174" s="9">
-        <v>-2.7E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G174" s="9">
-        <v>-0.23300000000000001</v>
+        <v>-0.20599999999999999</v>
       </c>
       <c r="H174" s="15">
         <v>0</v>
       </c>
       <c r="I174" s="9">
-        <v>0.88800000000000001</v>
+        <v>-0.53</v>
       </c>
       <c r="J174" s="9">
-        <v>1.034</v>
+        <v>-0.45300000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B175" s="8">
-        <v>3161</v>
+        <v>3170</v>
       </c>
       <c r="C175" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D175" s="16">
-        <v>-8.4000000000000005E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E175" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F175" s="9">
-        <v>1.6E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G175" s="9">
-        <v>-0.20599999999999999</v>
+        <v>-0.152</v>
       </c>
       <c r="H175" s="15">
         <v>0</v>
       </c>
       <c r="I175" s="9">
-        <v>-0.53</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="J175" s="9">
-        <v>-0.45300000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B176" s="8">
-        <v>3170</v>
-      </c>
-      <c r="C176" s="9">
+        <v>42614</v>
+      </c>
+      <c r="B176" s="10">
+        <v>3152</v>
+      </c>
+      <c r="C176" s="11">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D176" s="18">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="E176" s="10">
+        <v>84</v>
+      </c>
+      <c r="F176" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D176" s="16">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="E176" s="8">
-        <v>84</v>
-      </c>
-      <c r="F176" s="9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G176" s="9">
-        <v>-0.152</v>
-      </c>
-      <c r="H176" s="15">
-        <v>0</v>
-      </c>
-      <c r="I176" s="9">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J176" s="9">
-        <v>0.80200000000000005</v>
+      <c r="G176" s="19">
+        <v>-0.111</v>
+      </c>
+      <c r="H176" s="17">
+        <v>0</v>
+      </c>
+      <c r="I176" s="19">
+        <v>0.624</v>
+      </c>
+      <c r="J176" s="19">
+        <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B177" s="10">
-        <v>3159</v>
+        <v>3175</v>
       </c>
       <c r="C177" s="11">
-        <v>-3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D177" s="18">
-        <v>-7.4999999999999997E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E177" s="10">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F177" s="19">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G177" s="19">
-        <v>-0.11</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="H177" s="17">
         <v>0</v>
       </c>
       <c r="I177" s="19">
-        <v>0.5</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="J177" s="19">
-        <v>0.89</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B178" s="10">
-        <v>3182</v>
+        <v>3195</v>
       </c>
       <c r="C178" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D178" s="18">
-        <v>-6.5000000000000002E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E178" s="10">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F178" s="19">
-        <v>1.7000000000000001E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="G178" s="19">
-        <v>-7.2999999999999995E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H178" s="17">
         <v>0</v>
       </c>
       <c r="I178" s="19">
-        <v>-0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="J178" s="19">
-        <v>0.77600000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6199,317 +6199,319 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="25">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B182" s="8">
         <v>18</v>
       </c>
       <c r="C182" s="9">
-        <v>-6.8000000000000005E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D182" s="16">
-        <v>-0.2</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="E182" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F182" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G182" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="25">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B183" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C183" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D183" s="16">
-        <v>-0.23300000000000001</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E183" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F183" s="9">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="G183" s="9">
-        <v>2.9000000000000001E-2</v>
+        <v>-3.1E-2</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="25">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B184" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C184" s="9">
-        <v>0.20499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D184" s="16">
-        <v>-8.3000000000000004E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E184" s="8">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F184" s="9">
-        <v>-1.4E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="G184" s="9">
-        <v>-3.1E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B185" s="8">
         <v>22</v>
       </c>
       <c r="C185" s="9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D185" s="16">
-        <v>-2.1000000000000001E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E185" s="8">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F185" s="9">
-        <v>-4.3999999999999997E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="G185" s="9">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.11600000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="25">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B186" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C186" s="9">
-        <v>0.03</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="D186" s="16">
-        <v>-6.0999999999999999E-2</v>
+        <v>-0.16200000000000001</v>
       </c>
       <c r="E186" s="8">
         <v>211</v>
       </c>
       <c r="F186" s="9">
-        <v>-0.03</v>
+        <v>1E-3</v>
       </c>
       <c r="G186" s="9">
-        <v>-0.11600000000000001</v>
+        <v>-0.14399999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="25">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B187" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C187" s="9">
-        <v>-7.3999999999999996E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D187" s="16">
-        <v>-0.16200000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="E187" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F187" s="9">
-        <v>1E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="G187" s="9">
-        <v>-0.14399999999999999</v>
+        <v>-0.17799999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="25">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B188" s="8">
         <v>22</v>
       </c>
       <c r="C188" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="D188" s="16">
-        <v>-0.1</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E188" s="8">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F188" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="G188" s="9">
-        <v>-0.17799999999999999</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="25">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B189" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C189" s="9">
-        <v>-2E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D189" s="16">
-        <v>-9.1999999999999998E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="E189" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F189" s="9">
-        <v>-0.05</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="G189" s="9">
-        <v>-0.186</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="25">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B190" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" s="9">
-        <v>3.9E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D190" s="16">
-        <v>-0.06</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E190" s="8">
         <v>192</v>
       </c>
       <c r="F190" s="9">
-        <v>-2.4E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G190" s="9">
-        <v>-0.19</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="25">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B191" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C191" s="9">
-        <v>5.8000000000000003E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="D191" s="16">
-        <v>7.9000000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="E191" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F191" s="9">
-        <v>2E-3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G191" s="9">
-        <v>-0.185</v>
+        <v>-0.19900000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="25">
-        <v>42583</v>
-      </c>
-      <c r="B192" s="8">
-        <v>23</v>
-      </c>
-      <c r="C192" s="9">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="D192" s="16">
-        <v>0.115</v>
-      </c>
-      <c r="E192" s="8">
-        <v>187</v>
-      </c>
-      <c r="F192" s="9">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="G192" s="9">
-        <v>-0.19900000000000001</v>
+        <v>42614</v>
+      </c>
+      <c r="B192" s="10">
+        <v>21</v>
+      </c>
+      <c r="C192" s="11">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="D192" s="18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E192" s="10">
+        <v>186</v>
+      </c>
+      <c r="F192" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="G192" s="19">
+        <v>-0.20599999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="25">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B193" s="10">
         <v>21</v>
       </c>
       <c r="C193" s="11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D193" s="18">
-        <v>8.8999999999999996E-2</v>
+        <v>0.151</v>
       </c>
       <c r="E193" s="10">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F193" s="19">
-        <v>-1.2999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G193" s="19">
-        <v>-0.20799999999999999</v>
+        <v>-0.17699999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="25">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B194" s="10">
         <v>21</v>
       </c>
       <c r="C194" s="11">
-        <v>-2E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D194" s="18">
-        <v>0.16600000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E194" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F194" s="19">
-        <v>3.2000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G194" s="19">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -6519,20 +6521,18 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H100:J100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
